--- a/utils/excel.xlsx
+++ b/utils/excel.xlsx
@@ -1060,7 +1060,12 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>新写入</t>
+          <t>sheet.cell(1, 3).value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>直接加value</t>
         </is>
       </c>
     </row>
